--- a/after/은행_서비스명세서_dummy.xlsx
+++ b/after/은행_서비스명세서_dummy.xlsx
@@ -61,7 +61,7 @@
     <t>2019-11-03</t>
   </si>
   <si>
-    <t>적금거래내역 추가</t>
+    <t>적금거래내역 추가 (수정)</t>
   </si>
   <si>
     <t>곽재우</t>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -201,13 +201,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -239,6 +326,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -411,9 +525,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -493,7 +607,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -521,10 +635,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -780,9 +894,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1070,7 +1184,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1098,10 +1212,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1352,7 +1466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1451,6 +1565,27 @@
       </c>
       <c r="E7" s="7"/>
     </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/after/은행_서비스명세서_dummy.xlsx
+++ b/after/은행_서비스명세서_dummy.xlsx
@@ -52,7 +52,7 @@
     <t>2019-11-02</t>
   </si>
   <si>
-    <t>기관별 개발현황 탭 추가</t>
+    <t>기관별 개발현황 탭 추가 (수정)</t>
   </si>
   <si>
     <t>유관순</t>
@@ -61,7 +61,7 @@
     <t>2019-11-03</t>
   </si>
   <si>
-    <t>적금거래내역 추가 (수정)</t>
+    <t>적금거래내역 추가</t>
   </si>
   <si>
     <t>곽재우</t>
